--- a/CPU-显卡/鲁大师显卡性价比计算.xlsx
+++ b/CPU-显卡/鲁大师显卡性价比计算.xlsx
@@ -56,18 +56,210 @@
     <t>AMD Radeon RX 470 4GB</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 480 8GB</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 650 2GB</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 750 4GB</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 750 2GB</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 950 4GB</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1050 4GB</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2060 6GB</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1060 3GB</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080 10GB</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3070 8GB</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2060 SUPER 8GB</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6500XT 16MB</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1060 5GB</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2070 SUPER 8GB</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2080 8GB</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3070 Ti 8GB</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2080 SUPER 8GB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060 Ti 8GB</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6650 XT 8GB</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080 Ti 12GB</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1660 SUPER 6GB</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1060 6GB</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1660 Ti 6GB</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3050 8GB</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060 12GB</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 5060 8GB</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4060 8GB</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6750 GRE 12GB</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4070 SUPER 12GB</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4060 Ti 8GB</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4070 12GB</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 5060 Ti 8GB</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080 12GB</t>
+  </si>
+  <si>
     <t>203</t>
   </si>
   <si>
     <t>AMD Radeon RX 470 8GB</t>
   </si>
   <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>AMD Radeon RX 480 8GB</t>
-  </si>
-  <si>
     <t>178</t>
   </si>
   <si>
@@ -80,36 +272,18 @@
     <t>NVIDIA GeForce GTX 650 1GB</t>
   </si>
   <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 650 2GB</t>
-  </si>
-  <si>
     <t>370</t>
   </si>
   <si>
     <t>NVIDIA GeForce GTX 650 4GB</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 750 4GB</t>
-  </si>
-  <si>
     <t>278</t>
   </si>
   <si>
     <t>NVIDIA GeForce GTX 750 1GB</t>
   </si>
   <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 750 2GB</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -128,12 +302,6 @@
     <t>NVIDIA GeForce GTX 960 4GB</t>
   </si>
   <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 950 4GB</t>
-  </si>
-  <si>
     <t>222</t>
   </si>
   <si>
@@ -143,9 +311,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>NVIDIA GeForce GTX 1060 3GB</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
@@ -158,9 +323,6 @@
     <t>160</t>
   </si>
   <si>
-    <t>NVIDIA GeForce GTX 1060 6GB</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
@@ -168,168 +330,6 @@
   </si>
   <si>
     <t>162</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 1050 4GB</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 2060 6GB</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3080 12GB</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3080 10GB</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3070 8GB</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 2060 SUPER 8GB</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>AMD Radeon RX 6500XT 16MB</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 1060 5GB</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 2070 SUPER 8GB</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 2080 8GB</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3070 Ti 8GB</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 2080 SUPER 8GB</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3060 Ti 8GB</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>AMD Radeon RX 6650 XT 8GB</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3080 Ti 12GB</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 1660 SUPER 6GB</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 1660 Ti 6GB</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3050 8GB</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 3060 12GB</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>AMD Radeon RX 6750 GRE 12GB</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 5060 8GB</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 4060 8GB</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 4070 SUPER 12GB</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 4060 Ti 8GB</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 4070 12GB</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 5060 Ti 8GB</t>
   </si>
   <si>
     <t>36</t>
@@ -4370,8 +4370,8 @@
   <sheetPr/>
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4426,14 +4426,14 @@
         <v>8</v>
       </c>
       <c r="C3" s="19">
-        <v>152430</v>
+        <v>171116</v>
       </c>
       <c r="D3" s="20">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E3" s="21">
         <f>IF(D3=0,0,C3/D3)</f>
-        <v>668.552631578947</v>
+        <v>658.138461538462</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
@@ -4444,14 +4444,14 @@
         <v>10</v>
       </c>
       <c r="C4" s="19">
-        <v>171116</v>
+        <v>34790</v>
       </c>
       <c r="D4" s="20">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="E4" s="21">
         <f>IF(D4=0,0,C4/D4)</f>
-        <v>658.138461538462</v>
+        <v>579.833333333333</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
@@ -4462,14 +4462,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="19">
-        <v>166004</v>
+        <v>75101</v>
       </c>
       <c r="D5" s="20">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="E5" s="21">
         <f>IF(D5=0,0,C5/D5)</f>
-        <v>638.476923076923</v>
+        <v>517.937931034483</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
@@ -4480,14 +4480,14 @@
         <v>14</v>
       </c>
       <c r="C6" s="19">
-        <v>34980</v>
+        <v>73499</v>
       </c>
       <c r="D6" s="20">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="E6" s="21">
         <f>IF(D6=0,0,C6/D6)</f>
-        <v>583</v>
+        <v>506.889655172414</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
@@ -4498,14 +4498,14 @@
         <v>16</v>
       </c>
       <c r="C7" s="19">
-        <v>34790</v>
+        <v>93432</v>
       </c>
       <c r="D7" s="20">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E7" s="21">
         <f>IF(D7=0,0,C7/D7)</f>
-        <v>579.833333333333</v>
+        <v>467.16</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
@@ -4516,14 +4516,14 @@
         <v>18</v>
       </c>
       <c r="C8" s="19">
-        <v>34253</v>
+        <v>101099</v>
       </c>
       <c r="D8" s="20">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="E8" s="21">
         <f>IF(D8=0,0,C8/D8)</f>
-        <v>570.883333333333</v>
+        <v>373.059040590406</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
@@ -4534,14 +4534,14 @@
         <v>20</v>
       </c>
       <c r="C9" s="19">
-        <v>75101</v>
-      </c>
-      <c r="D9" s="20">
-        <v>145</v>
+        <v>319148</v>
+      </c>
+      <c r="D9" s="22">
+        <v>934</v>
       </c>
       <c r="E9" s="21">
         <f>IF(D9=0,0,C9/D9)</f>
-        <v>517.937931034483</v>
+        <v>341.700214132762</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
@@ -4552,14 +4552,14 @@
         <v>22</v>
       </c>
       <c r="C10" s="19">
-        <v>73499</v>
+        <v>186013</v>
       </c>
       <c r="D10" s="20">
-        <v>145</v>
+        <v>555</v>
       </c>
       <c r="E10" s="21">
         <f>IF(D10=0,0,C10/D10)</f>
-        <v>506.889655172414</v>
+        <v>335.158558558559</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
@@ -4570,14 +4570,14 @@
         <v>24</v>
       </c>
       <c r="C11" s="19">
-        <v>73499</v>
+        <v>741843</v>
       </c>
       <c r="D11" s="20">
-        <v>145</v>
+        <v>2296</v>
       </c>
       <c r="E11" s="21">
         <f>IF(D11=0,0,C11/D11)</f>
-        <v>506.889655172414</v>
+        <v>323.102351916376</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
@@ -4588,14 +4588,14 @@
         <v>26</v>
       </c>
       <c r="C12" s="19">
-        <v>101344</v>
+        <v>560574</v>
       </c>
       <c r="D12" s="20">
-        <v>200</v>
+        <v>1749</v>
       </c>
       <c r="E12" s="21">
         <f>IF(D12=0,0,C12/D12)</f>
-        <v>506.72</v>
+        <v>320.51114922813</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
@@ -4606,14 +4606,14 @@
         <v>28</v>
       </c>
       <c r="C13" s="19">
-        <v>112246</v>
-      </c>
-      <c r="D13" s="20">
-        <v>230</v>
+        <v>359351</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1139</v>
       </c>
       <c r="E13" s="21">
         <f>IF(D13=0,0,C13/D13)</f>
-        <v>488.026086956522</v>
+        <v>315.496927129061</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
@@ -4624,14 +4624,14 @@
         <v>30</v>
       </c>
       <c r="C14" s="19">
-        <v>111933</v>
+        <v>187231</v>
       </c>
       <c r="D14" s="20">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="E14" s="21">
         <f>IF(D14=0,0,C14/D14)</f>
-        <v>486.665217391304</v>
+        <v>312.051666666667</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
@@ -4642,14 +4642,14 @@
         <v>32</v>
       </c>
       <c r="C15" s="19">
-        <v>93432</v>
+        <v>186094</v>
       </c>
       <c r="D15" s="20">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="E15" s="21">
         <f>IF(D15=0,0,C15/D15)</f>
-        <v>467.16</v>
+        <v>310.674457429048</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
@@ -4660,14 +4660,14 @@
         <v>34</v>
       </c>
       <c r="C16" s="19">
-        <v>110973</v>
+        <v>417622</v>
       </c>
       <c r="D16" s="20">
-        <v>271</v>
+        <v>1349</v>
       </c>
       <c r="E16" s="21">
         <f>IF(D16=0,0,C16/D16)</f>
-        <v>409.494464944649</v>
+        <v>309.578947368421</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
@@ -4678,14 +4678,14 @@
         <v>36</v>
       </c>
       <c r="C17" s="19">
-        <v>184804</v>
-      </c>
-      <c r="D17" s="20">
-        <v>460</v>
+        <v>447756</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1449</v>
       </c>
       <c r="E17" s="21">
         <f>IF(D17=0,0,C17/D17)</f>
-        <v>401.747826086957</v>
+        <v>309.010351966874</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
@@ -4693,593 +4693,561 @@
         <v>37</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="19">
-        <v>183917</v>
+        <v>617599</v>
       </c>
       <c r="D18" s="20">
-        <v>460</v>
+        <v>1999</v>
       </c>
       <c r="E18" s="21">
         <f>IF(D18=0,0,C18/D18)</f>
-        <v>399.819565217391</v>
+        <v>308.953976988494</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="19">
-        <v>179224</v>
+        <v>476529</v>
       </c>
       <c r="D19" s="20">
-        <v>460</v>
+        <v>1549</v>
       </c>
       <c r="E19" s="21">
         <f>IF(D19=0,0,C19/D19)</f>
-        <v>389.617391304348</v>
+        <v>307.636539703034</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="19">
-        <v>178555</v>
+        <v>486919</v>
       </c>
       <c r="D20" s="20">
-        <v>460</v>
+        <v>1649</v>
       </c>
       <c r="E20" s="21">
         <f>IF(D20=0,0,C20/D20)</f>
-        <v>388.163043478261</v>
+        <v>295.281382656155</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="19">
-        <v>105108</v>
+        <v>388632</v>
       </c>
       <c r="D21" s="20">
-        <v>271</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="21">
         <f>IF(D21=0,0,C21/D21)</f>
-        <v>387.852398523985</v>
+        <v>287.875555555556</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
       <c r="A22" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C22" s="19">
-        <v>177173</v>
+        <v>839573</v>
       </c>
       <c r="D22" s="20">
-        <v>460</v>
+        <v>2996</v>
       </c>
       <c r="E22" s="21">
         <f>IF(D22=0,0,C22/D22)</f>
-        <v>385.158695652174</v>
+        <v>280.231308411215</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
       <c r="A23" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="19">
-        <v>101099</v>
-      </c>
-      <c r="D23" s="20">
-        <v>271</v>
+        <v>245091</v>
+      </c>
+      <c r="D23" s="22">
+        <v>899</v>
       </c>
       <c r="E23" s="21">
         <f>IF(D23=0,0,C23/D23)</f>
-        <v>373.059040590406</v>
+        <v>272.626251390434</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
       <c r="A24" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19">
-        <v>319148</v>
-      </c>
-      <c r="D24" s="22">
-        <v>934</v>
+        <v>202397</v>
+      </c>
+      <c r="D24" s="20">
+        <v>789</v>
       </c>
       <c r="E24" s="21">
         <f>IF(D24=0,0,C24/D24)</f>
-        <v>341.700214132762</v>
+        <v>256.523447401774</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
       <c r="A25" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C25" s="19">
-        <v>186013</v>
-      </c>
-      <c r="D25" s="20">
-        <v>555</v>
+        <v>258018</v>
+      </c>
+      <c r="D25" s="22">
+        <v>1049</v>
       </c>
       <c r="E25" s="21">
         <f>IF(D25=0,0,C25/D25)</f>
-        <v>335.158558558559</v>
+        <v>245.965681601525</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:5">
       <c r="A26" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19">
-        <v>782070</v>
-      </c>
-      <c r="D26" s="20">
-        <v>2399</v>
+        <v>269755</v>
+      </c>
+      <c r="D26" s="22">
+        <v>1149</v>
       </c>
       <c r="E26" s="21">
         <f>IF(D26=0,0,C26/D26)</f>
-        <v>325.998332638599</v>
+        <v>234.773716275022</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19">
-        <v>741843</v>
-      </c>
-      <c r="D27" s="20">
-        <v>2296</v>
+        <v>369048</v>
+      </c>
+      <c r="D27" s="22">
+        <v>1599</v>
       </c>
       <c r="E27" s="21">
         <f>IF(D27=0,0,C27/D27)</f>
-        <v>323.102351916376</v>
+        <v>230.799249530957</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:5">
       <c r="A28" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C28" s="19">
-        <v>560574</v>
+        <v>503706</v>
       </c>
       <c r="D28" s="20">
-        <v>1749</v>
+        <v>2286</v>
       </c>
       <c r="E28" s="21">
         <f>IF(D28=0,0,C28/D28)</f>
-        <v>320.51114922813</v>
+        <v>220.343832020997</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:5">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" s="19">
-        <v>359351</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1139</v>
+        <v>388689</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1900</v>
       </c>
       <c r="E29" s="21">
         <f>IF(D29=0,0,C29/D29)</f>
-        <v>315.496927129061</v>
+        <v>204.573157894737</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
       <c r="A30" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C30" s="19">
-        <v>187231</v>
+        <v>509325</v>
       </c>
       <c r="D30" s="20">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="E30" s="21">
         <f>IF(D30=0,0,C30/D30)</f>
-        <v>312.051666666667</v>
+        <v>203.73</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:5">
       <c r="A31" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" s="19">
-        <v>186094</v>
+        <v>712759</v>
       </c>
       <c r="D31" s="20">
-        <v>599</v>
+        <v>3696</v>
       </c>
       <c r="E31" s="21">
         <f>IF(D31=0,0,C31/D31)</f>
-        <v>310.674457429048</v>
+        <v>192.84604978355</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:5">
       <c r="A32" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" s="19">
-        <v>417622</v>
+        <v>457259</v>
       </c>
       <c r="D32" s="20">
-        <v>1349</v>
+        <v>2619</v>
       </c>
       <c r="E32" s="21">
         <f>IF(D32=0,0,C32/D32)</f>
-        <v>309.578947368421</v>
+        <v>174.592974417717</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:5">
       <c r="A33" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19">
-        <v>447756</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1449</v>
+        <v>578523</v>
+      </c>
+      <c r="D33" s="20">
+        <v>3396</v>
       </c>
       <c r="E33" s="21">
         <f>IF(D33=0,0,C33/D33)</f>
-        <v>309.010351966874</v>
+        <v>170.354240282686</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:5">
       <c r="A34" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="19">
-        <v>617599</v>
+        <v>562215</v>
       </c>
       <c r="D34" s="20">
-        <v>1999</v>
+        <v>3489</v>
       </c>
       <c r="E34" s="21">
         <f>IF(D34=0,0,C34/D34)</f>
-        <v>308.953976988494</v>
+        <v>161.139294926913</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:5">
       <c r="A35" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="19">
-        <v>476529</v>
-      </c>
-      <c r="D35" s="20">
-        <v>1549</v>
-      </c>
+        <v>782070</v>
+      </c>
+      <c r="D35" s="20"/>
       <c r="E35" s="21">
         <f>IF(D35=0,0,C35/D35)</f>
-        <v>307.636539703034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:5">
       <c r="A36" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="19">
-        <v>486919</v>
-      </c>
-      <c r="D36" s="20">
-        <v>1649</v>
-      </c>
+        <v>152430</v>
+      </c>
+      <c r="D36" s="20"/>
       <c r="E36" s="21">
         <f>IF(D36=0,0,C36/D36)</f>
-        <v>295.281382656155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:5">
       <c r="A37" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="19">
-        <v>388632</v>
-      </c>
-      <c r="D37" s="20">
-        <v>1350</v>
-      </c>
+        <v>166004</v>
+      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="21">
         <f>IF(D37=0,0,C37/D37)</f>
-        <v>287.875555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" s="19">
-        <v>839573</v>
-      </c>
-      <c r="D38" s="20">
-        <v>2996</v>
-      </c>
+        <v>34980</v>
+      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="21">
         <f>IF(D38=0,0,C38/D38)</f>
-        <v>280.231308411215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:5">
       <c r="A39" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C39" s="19">
-        <v>245091</v>
-      </c>
-      <c r="D39" s="22">
-        <v>899</v>
-      </c>
+        <v>34253</v>
+      </c>
+      <c r="D39" s="20"/>
       <c r="E39" s="21">
         <f>IF(D39=0,0,C39/D39)</f>
-        <v>272.626251390434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:5">
       <c r="A40" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C40" s="19">
-        <v>202397</v>
-      </c>
-      <c r="D40" s="20">
-        <v>789</v>
-      </c>
+        <v>73499</v>
+      </c>
+      <c r="D40" s="20"/>
       <c r="E40" s="21">
         <f>IF(D40=0,0,C40/D40)</f>
-        <v>256.523447401774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:5">
       <c r="A41" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C41" s="19">
-        <v>258018</v>
-      </c>
-      <c r="D41" s="22">
-        <v>1049</v>
-      </c>
+        <v>101344</v>
+      </c>
+      <c r="D41" s="20"/>
       <c r="E41" s="21">
         <f>IF(D41=0,0,C41/D41)</f>
-        <v>245.965681601525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:5">
       <c r="A42" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42" s="19">
-        <v>269755</v>
-      </c>
-      <c r="D42" s="22">
-        <v>1149</v>
-      </c>
+        <v>112246</v>
+      </c>
+      <c r="D42" s="20"/>
       <c r="E42" s="21">
         <f>IF(D42=0,0,C42/D42)</f>
-        <v>234.773716275022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:5">
       <c r="A43" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C43" s="19">
-        <v>369048</v>
-      </c>
-      <c r="D43" s="22">
-        <v>1599</v>
-      </c>
+        <v>111933</v>
+      </c>
+      <c r="D43" s="20"/>
       <c r="E43" s="21">
         <f>IF(D43=0,0,C43/D43)</f>
-        <v>230.799249530957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:5">
       <c r="A44" s="19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" s="19">
-        <v>509325</v>
-      </c>
-      <c r="D44" s="20">
-        <v>2500</v>
-      </c>
+        <v>110973</v>
+      </c>
+      <c r="D44" s="20"/>
       <c r="E44" s="21">
         <f>IF(D44=0,0,C44/D44)</f>
-        <v>203.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:5">
       <c r="A45" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C45" s="19">
-        <v>503706</v>
-      </c>
-      <c r="D45" s="20">
-        <v>2496</v>
-      </c>
+        <v>184804</v>
+      </c>
+      <c r="D45" s="20"/>
       <c r="E45" s="21">
         <f>IF(D45=0,0,C45/D45)</f>
-        <v>201.805288461538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:5">
       <c r="A46" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C46" s="19">
-        <v>388689</v>
-      </c>
-      <c r="D46" s="20">
-        <v>1996</v>
-      </c>
+        <v>183917</v>
+      </c>
+      <c r="D46" s="20"/>
       <c r="E46" s="21">
         <f>IF(D46=0,0,C46/D46)</f>
-        <v>194.733967935872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:5">
       <c r="A47" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="19">
-        <v>712759</v>
-      </c>
-      <c r="D47" s="20">
-        <v>3696</v>
-      </c>
+        <v>179224</v>
+      </c>
+      <c r="D47" s="20"/>
       <c r="E47" s="21">
         <f>IF(D47=0,0,C47/D47)</f>
-        <v>192.84604978355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:5">
       <c r="A48" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C48" s="19">
-        <v>457259</v>
-      </c>
-      <c r="D48" s="20">
-        <v>2619</v>
-      </c>
+        <v>178555</v>
+      </c>
+      <c r="D48" s="20"/>
       <c r="E48" s="21">
         <f>IF(D48=0,0,C48/D48)</f>
-        <v>174.592974417717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="19">
-        <v>578523</v>
-      </c>
-      <c r="D49" s="20">
-        <v>3396</v>
-      </c>
+        <v>105108</v>
+      </c>
+      <c r="D49" s="20"/>
       <c r="E49" s="21">
         <f>IF(D49=0,0,C49/D49)</f>
-        <v>170.354240282686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:5">
       <c r="A50" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C50" s="19">
-        <v>562215</v>
-      </c>
-      <c r="D50" s="20">
-        <v>3489</v>
-      </c>
+        <v>177173</v>
+      </c>
+      <c r="D50" s="20"/>
       <c r="E50" s="21">
         <f>IF(D50=0,0,C50/D50)</f>
-        <v>161.139294926913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:5">
@@ -5566,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="21">
-        <f>IF(D66=0,0,C66/D66)</f>
+        <f t="shared" ref="E66:E129" si="0">IF(D66=0,0,C66/D66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5584,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="21">
-        <f>IF(D67=0,0,C67/D67)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5602,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="21">
-        <f>IF(D68=0,0,C68/D68)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5620,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="21">
-        <f>IF(D69=0,0,C69/D69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="21">
-        <f>IF(D70=0,0,C70/D70)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="21">
-        <f>IF(D71=0,0,C71/D71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5674,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="21">
-        <f>IF(D72=0,0,C72/D72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5692,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="21">
-        <f>IF(D73=0,0,C73/D73)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5710,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="21">
-        <f>IF(D74=0,0,C74/D74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5728,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="21">
-        <f>IF(D75=0,0,C75/D75)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5746,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="21">
-        <f>IF(D76=0,0,C76/D76)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5764,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="21">
-        <f>IF(D77=0,0,C77/D77)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5782,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="21">
-        <f>IF(D78=0,0,C78/D78)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5800,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="21">
-        <f>IF(D79=0,0,C79/D79)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5818,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="21">
-        <f>IF(D80=0,0,C80/D80)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5836,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="21">
-        <f>IF(D81=0,0,C81/D81)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5854,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="21">
-        <f>IF(D82=0,0,C82/D82)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5872,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="21">
-        <f>IF(D83=0,0,C83/D83)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5890,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="21">
-        <f>IF(D84=0,0,C84/D84)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5908,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="21">
-        <f>IF(D85=0,0,C85/D85)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5926,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="21">
-        <f>IF(D86=0,0,C86/D86)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="21">
-        <f>IF(D87=0,0,C87/D87)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5962,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="21">
-        <f>IF(D88=0,0,C88/D88)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5980,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="21">
-        <f>IF(D89=0,0,C89/D89)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5998,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="21">
-        <f>IF(D90=0,0,C90/D90)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="21">
-        <f>IF(D91=0,0,C91/D91)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6034,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="21">
-        <f>IF(D92=0,0,C92/D92)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6052,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="21">
-        <f>IF(D93=0,0,C93/D93)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6070,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="21">
-        <f>IF(D94=0,0,C94/D94)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6088,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="21">
-        <f>IF(D95=0,0,C95/D95)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6106,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="21">
-        <f>IF(D96=0,0,C96/D96)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6124,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="21">
-        <f>IF(D97=0,0,C97/D97)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6142,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="21">
-        <f>IF(D98=0,0,C98/D98)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6160,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="21">
-        <f>IF(D99=0,0,C99/D99)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6178,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="21">
-        <f>IF(D100=0,0,C100/D100)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="21">
-        <f>IF(D101=0,0,C101/D101)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6214,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="21">
-        <f>IF(D102=0,0,C102/D102)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6232,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="21">
-        <f>IF(D103=0,0,C103/D103)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6250,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="21">
-        <f>IF(D104=0,0,C104/D104)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6268,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="21">
-        <f>IF(D105=0,0,C105/D105)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6286,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="21">
-        <f>IF(D106=0,0,C106/D106)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="21">
-        <f>IF(D107=0,0,C107/D107)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6322,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="21">
-        <f>IF(D108=0,0,C108/D108)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6340,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="21">
-        <f>IF(D109=0,0,C109/D109)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="21">
-        <f>IF(D110=0,0,C110/D110)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6376,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="21">
-        <f>IF(D111=0,0,C111/D111)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6394,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="21">
-        <f>IF(D112=0,0,C112/D112)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6412,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="21">
-        <f>IF(D113=0,0,C113/D113)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6430,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="21">
-        <f>IF(D114=0,0,C114/D114)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6448,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="21">
-        <f>IF(D115=0,0,C115/D115)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6466,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="21">
-        <f>IF(D116=0,0,C116/D116)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6484,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="21">
-        <f>IF(D117=0,0,C117/D117)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6502,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="21">
-        <f>IF(D118=0,0,C118/D118)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6520,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="21">
-        <f>IF(D119=0,0,C119/D119)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="21">
-        <f>IF(D120=0,0,C120/D120)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6556,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="21">
-        <f>IF(D121=0,0,C121/D121)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6574,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="21">
-        <f>IF(D122=0,0,C122/D122)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6592,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="21">
-        <f>IF(D123=0,0,C123/D123)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6610,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="21">
-        <f>IF(D124=0,0,C124/D124)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6628,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="21">
-        <f>IF(D125=0,0,C125/D125)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6646,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="21">
-        <f>IF(D126=0,0,C126/D126)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6664,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="21">
-        <f>IF(D127=0,0,C127/D127)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6682,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="21">
-        <f>IF(D128=0,0,C128/D128)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="21">
-        <f>IF(D129=0,0,C129/D129)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="21">
-        <f>IF(D130=0,0,C130/D130)</f>
+        <f t="shared" ref="E130:E193" si="1">IF(D130=0,0,C130/D130)</f>
         <v>0</v>
       </c>
     </row>
@@ -6734,7 +6702,7 @@
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="21">
-        <f>IF(D131=0,0,C131/D131)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6752,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="21">
-        <f>IF(D132=0,0,C132/D132)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="21">
-        <f>IF(D133=0,0,C133/D133)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6788,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="21">
-        <f>IF(D134=0,0,C134/D134)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6806,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="21">
-        <f>IF(D135=0,0,C135/D135)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6824,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="21">
-        <f>IF(D136=0,0,C136/D136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6842,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="21">
-        <f>IF(D137=0,0,C137/D137)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6860,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="21">
-        <f>IF(D138=0,0,C138/D138)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6878,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="21">
-        <f>IF(D139=0,0,C139/D139)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6896,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="21">
-        <f>IF(D140=0,0,C140/D140)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6914,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="21">
-        <f>IF(D141=0,0,C141/D141)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6932,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="21">
-        <f>IF(D142=0,0,C142/D142)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6950,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="21">
-        <f>IF(D143=0,0,C143/D143)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6968,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="21">
-        <f>IF(D144=0,0,C144/D144)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6986,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="21">
-        <f>IF(D145=0,0,C145/D145)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="21">
-        <f>IF(D146=0,0,C146/D146)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7022,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="21">
-        <f>IF(D147=0,0,C147/D147)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="21">
-        <f>IF(D148=0,0,C148/D148)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7058,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="21">
-        <f>IF(D149=0,0,C149/D149)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7076,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="21">
-        <f>IF(D150=0,0,C150/D150)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7094,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="21">
-        <f>IF(D151=0,0,C151/D151)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7112,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="21">
-        <f>IF(D152=0,0,C152/D152)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7130,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="21">
-        <f>IF(D153=0,0,C153/D153)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="21">
-        <f>IF(D154=0,0,C154/D154)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7166,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="21">
-        <f>IF(D155=0,0,C155/D155)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7184,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="21">
-        <f>IF(D156=0,0,C156/D156)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7202,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="21">
-        <f>IF(D157=0,0,C157/D157)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="21">
-        <f>IF(D158=0,0,C158/D158)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7238,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="21">
-        <f>IF(D159=0,0,C159/D159)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7256,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="21">
-        <f>IF(D160=0,0,C160/D160)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7274,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="21">
-        <f>IF(D161=0,0,C161/D161)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7292,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="21">
-        <f>IF(D162=0,0,C162/D162)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7310,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="21">
-        <f>IF(D163=0,0,C163/D163)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7328,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="21">
-        <f>IF(D164=0,0,C164/D164)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7346,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="21">
-        <f>IF(D165=0,0,C165/D165)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7364,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="21">
-        <f>IF(D166=0,0,C166/D166)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7382,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="21">
-        <f>IF(D167=0,0,C167/D167)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7400,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="21">
-        <f>IF(D168=0,0,C168/D168)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7418,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="21">
-        <f>IF(D169=0,0,C169/D169)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7436,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="21">
-        <f>IF(D170=0,0,C170/D170)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7454,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="21">
-        <f>IF(D171=0,0,C171/D171)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="21">
-        <f>IF(D172=0,0,C172/D172)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="21">
-        <f>IF(D173=0,0,C173/D173)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7508,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="21">
-        <f>IF(D174=0,0,C174/D174)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7526,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="21">
-        <f>IF(D175=0,0,C175/D175)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7544,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="21">
-        <f>IF(D176=0,0,C176/D176)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7562,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="E177" s="21">
-        <f>IF(D177=0,0,C177/D177)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7580,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="21">
-        <f>IF(D178=0,0,C178/D178)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7598,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="E179" s="21">
-        <f>IF(D179=0,0,C179/D179)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7616,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="21">
-        <f>IF(D180=0,0,C180/D180)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="21">
-        <f>IF(D181=0,0,C181/D181)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="21">
-        <f>IF(D182=0,0,C182/D182)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7670,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="21">
-        <f>IF(D183=0,0,C183/D183)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7688,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="21">
-        <f>IF(D184=0,0,C184/D184)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7706,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="21">
-        <f>IF(D185=0,0,C185/D185)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7724,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="21">
-        <f>IF(D186=0,0,C186/D186)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7742,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="21">
-        <f>IF(D187=0,0,C187/D187)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7760,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="21">
-        <f>IF(D188=0,0,C188/D188)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="21">
-        <f>IF(D189=0,0,C189/D189)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7796,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="21">
-        <f>IF(D190=0,0,C190/D190)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7814,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="E191" s="21">
-        <f>IF(D191=0,0,C191/D191)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7832,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="E192" s="21">
-        <f>IF(D192=0,0,C192/D192)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7850,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="21">
-        <f>IF(D193=0,0,C193/D193)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="21">
-        <f>IF(D194=0,0,C194/D194)</f>
+        <f t="shared" ref="E194:E257" si="2">IF(D194=0,0,C194/D194)</f>
         <v>0</v>
       </c>
     </row>
@@ -7886,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="21">
-        <f>IF(D195=0,0,C195/D195)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7904,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E196" s="21">
-        <f>IF(D196=0,0,C196/D196)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7922,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="E197" s="21">
-        <f>IF(D197=0,0,C197/D197)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7940,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="E198" s="21">
-        <f>IF(D198=0,0,C198/D198)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="E199" s="21">
-        <f>IF(D199=0,0,C199/D199)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7976,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="21">
-        <f>IF(D200=0,0,C200/D200)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7994,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="E201" s="21">
-        <f>IF(D201=0,0,C201/D201)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="21">
-        <f>IF(D202=0,0,C202/D202)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8030,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="21">
-        <f>IF(D203=0,0,C203/D203)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8048,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="E204" s="21">
-        <f>IF(D204=0,0,C204/D204)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8066,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="E205" s="21">
-        <f>IF(D205=0,0,C205/D205)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8084,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="E206" s="21">
-        <f>IF(D206=0,0,C206/D206)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8102,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="E207" s="21">
-        <f>IF(D207=0,0,C207/D207)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8120,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="E208" s="21">
-        <f>IF(D208=0,0,C208/D208)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8138,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="21">
-        <f>IF(D209=0,0,C209/D209)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E210" s="21">
-        <f>IF(D210=0,0,C210/D210)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8174,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="E211" s="21">
-        <f>IF(D211=0,0,C211/D211)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8192,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="E212" s="21">
-        <f>IF(D212=0,0,C212/D212)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8210,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="21">
-        <f>IF(D213=0,0,C213/D213)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8228,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="E214" s="21">
-        <f>IF(D214=0,0,C214/D214)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8246,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="21">
-        <f>IF(D215=0,0,C215/D215)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8264,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="E216" s="21">
-        <f>IF(D216=0,0,C216/D216)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8282,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="21">
-        <f>IF(D217=0,0,C217/D217)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="E218" s="21">
-        <f>IF(D218=0,0,C218/D218)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8318,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="21">
-        <f>IF(D219=0,0,C219/D219)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8336,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="21">
-        <f>IF(D220=0,0,C220/D220)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8354,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="21">
-        <f>IF(D221=0,0,C221/D221)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8372,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="E222" s="21">
-        <f>IF(D222=0,0,C222/D222)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8390,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="21">
-        <f>IF(D223=0,0,C223/D223)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8408,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="21">
-        <f>IF(D224=0,0,C224/D224)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8426,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="E225" s="21">
-        <f>IF(D225=0,0,C225/D225)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8444,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="21">
-        <f>IF(D226=0,0,C226/D226)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8462,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="21">
-        <f>IF(D227=0,0,C227/D227)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="21">
-        <f>IF(D228=0,0,C228/D228)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8498,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="21">
-        <f>IF(D229=0,0,C229/D229)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8516,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="21">
-        <f>IF(D230=0,0,C230/D230)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8534,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="21">
-        <f>IF(D231=0,0,C231/D231)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8552,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="21">
-        <f>IF(D232=0,0,C232/D232)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8570,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="21">
-        <f>IF(D233=0,0,C233/D233)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8588,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="21">
-        <f>IF(D234=0,0,C234/D234)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8606,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="21">
-        <f>IF(D235=0,0,C235/D235)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="21">
-        <f>IF(D236=0,0,C236/D236)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8642,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E237" s="21">
-        <f>IF(D237=0,0,C237/D237)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8660,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="21">
-        <f>IF(D238=0,0,C238/D238)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8678,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="21">
-        <f>IF(D239=0,0,C239/D239)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8696,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="21">
-        <f>IF(D240=0,0,C240/D240)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8714,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="21">
-        <f>IF(D241=0,0,C241/D241)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="21">
-        <f>IF(D242=0,0,C242/D242)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8750,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="21">
-        <f>IF(D243=0,0,C243/D243)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8768,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="21">
-        <f>IF(D244=0,0,C244/D244)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="21">
-        <f>IF(D245=0,0,C245/D245)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8804,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="21">
-        <f>IF(D246=0,0,C246/D246)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8822,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="E247" s="21">
-        <f>IF(D247=0,0,C247/D247)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="E248" s="21">
-        <f>IF(D248=0,0,C248/D248)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8858,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="21">
-        <f>IF(D249=0,0,C249/D249)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="E250" s="21">
-        <f>IF(D250=0,0,C250/D250)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8894,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="E251" s="21">
-        <f>IF(D251=0,0,C251/D251)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="21">
-        <f>IF(D252=0,0,C252/D252)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8930,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="21">
-        <f>IF(D253=0,0,C253/D253)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8948,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="21">
-        <f>IF(D254=0,0,C254/D254)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8966,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="E255" s="21">
-        <f>IF(D255=0,0,C255/D255)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8984,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="E256" s="21">
-        <f>IF(D256=0,0,C256/D256)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9002,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="21">
-        <f>IF(D257=0,0,C257/D257)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9020,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="21">
-        <f>IF(D258=0,0,C258/D258)</f>
+        <f t="shared" ref="E258:E321" si="3">IF(D258=0,0,C258/D258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="21">
-        <f>IF(D259=0,0,C259/D259)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9056,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="21">
-        <f>IF(D260=0,0,C260/D260)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9074,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="21">
-        <f>IF(D261=0,0,C261/D261)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9092,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="21">
-        <f>IF(D262=0,0,C262/D262)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9110,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="21">
-        <f>IF(D263=0,0,C263/D263)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9128,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="21">
-        <f>IF(D264=0,0,C264/D264)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9146,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="E265" s="21">
-        <f>IF(D265=0,0,C265/D265)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9164,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E266" s="21">
-        <f>IF(D266=0,0,C266/D266)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9182,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="21">
-        <f>IF(D267=0,0,C267/D267)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9200,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="E268" s="21">
-        <f>IF(D268=0,0,C268/D268)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9218,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="E269" s="21">
-        <f>IF(D269=0,0,C269/D269)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9236,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="21">
-        <f>IF(D270=0,0,C270/D270)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9254,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="21">
-        <f>IF(D271=0,0,C271/D271)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9272,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="E272" s="21">
-        <f>IF(D272=0,0,C272/D272)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9290,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="21">
-        <f>IF(D273=0,0,C273/D273)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9308,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="21">
-        <f>IF(D274=0,0,C274/D274)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9326,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="E275" s="21">
-        <f>IF(D275=0,0,C275/D275)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9344,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="E276" s="21">
-        <f>IF(D276=0,0,C276/D276)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9362,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="E277" s="21">
-        <f>IF(D277=0,0,C277/D277)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9380,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E278" s="21">
-        <f>IF(D278=0,0,C278/D278)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9398,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="21">
-        <f>IF(D279=0,0,C279/D279)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9416,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="21">
-        <f>IF(D280=0,0,C280/D280)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9434,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="E281" s="21">
-        <f>IF(D281=0,0,C281/D281)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9452,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="E282" s="21">
-        <f>IF(D282=0,0,C282/D282)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9470,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="E283" s="21">
-        <f>IF(D283=0,0,C283/D283)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9488,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="E284" s="21">
-        <f>IF(D284=0,0,C284/D284)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9506,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="E285" s="21">
-        <f>IF(D285=0,0,C285/D285)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9524,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="E286" s="21">
-        <f>IF(D286=0,0,C286/D286)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9542,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="E287" s="21">
-        <f>IF(D287=0,0,C287/D287)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9560,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="E288" s="21">
-        <f>IF(D288=0,0,C288/D288)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9578,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="21">
-        <f>IF(D289=0,0,C289/D289)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9596,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="E290" s="21">
-        <f>IF(D290=0,0,C290/D290)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9614,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="21">
-        <f>IF(D291=0,0,C291/D291)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9632,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="E292" s="21">
-        <f>IF(D292=0,0,C292/D292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9650,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="21">
-        <f>IF(D293=0,0,C293/D293)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9668,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="E294" s="21">
-        <f>IF(D294=0,0,C294/D294)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9686,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E295" s="21">
-        <f>IF(D295=0,0,C295/D295)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9704,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="21">
-        <f>IF(D296=0,0,C296/D296)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9722,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="E297" s="21">
-        <f>IF(D297=0,0,C297/D297)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9740,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="21">
-        <f>IF(D298=0,0,C298/D298)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9758,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="21">
-        <f>IF(D299=0,0,C299/D299)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="E300" s="21">
-        <f>IF(D300=0,0,C300/D300)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9794,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="21">
-        <f>IF(D301=0,0,C301/D301)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9812,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="21">
-        <f>IF(D302=0,0,C302/D302)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9830,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="E303" s="21">
-        <f>IF(D303=0,0,C303/D303)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9848,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="21">
-        <f>IF(D304=0,0,C304/D304)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9866,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="21">
-        <f>IF(D305=0,0,C305/D305)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9884,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="E306" s="21">
-        <f>IF(D306=0,0,C306/D306)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9902,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E307" s="21">
-        <f>IF(D307=0,0,C307/D307)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9920,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="E308" s="21">
-        <f>IF(D308=0,0,C308/D308)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9938,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="E309" s="21">
-        <f>IF(D309=0,0,C309/D309)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9956,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="E310" s="21">
-        <f>IF(D310=0,0,C310/D310)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9974,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="E311" s="21">
-        <f>IF(D311=0,0,C311/D311)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9992,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="21">
-        <f>IF(D312=0,0,C312/D312)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10010,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="E313" s="21">
-        <f>IF(D313=0,0,C313/D313)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10028,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="E314" s="21">
-        <f>IF(D314=0,0,C314/D314)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10046,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="21">
-        <f>IF(D315=0,0,C315/D315)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10064,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="E316" s="21">
-        <f>IF(D316=0,0,C316/D316)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10082,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="E317" s="21">
-        <f>IF(D317=0,0,C317/D317)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10100,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="E318" s="21">
-        <f>IF(D318=0,0,C318/D318)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10118,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="21">
-        <f>IF(D319=0,0,C319/D319)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10136,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="21">
-        <f>IF(D320=0,0,C320/D320)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10154,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="E321" s="21">
-        <f>IF(D321=0,0,C321/D321)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10172,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="E322" s="21">
-        <f>IF(D322=0,0,C322/D322)</f>
+        <f t="shared" ref="E322:E385" si="4">IF(D322=0,0,C322/D322)</f>
         <v>0</v>
       </c>
     </row>
@@ -10190,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="E323" s="21">
-        <f>IF(D323=0,0,C323/D323)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10208,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="E324" s="21">
-        <f>IF(D324=0,0,C324/D324)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10226,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="E325" s="21">
-        <f>IF(D325=0,0,C325/D325)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10244,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="E326" s="21">
-        <f>IF(D326=0,0,C326/D326)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10262,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="E327" s="21">
-        <f>IF(D327=0,0,C327/D327)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10280,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="21">
-        <f>IF(D328=0,0,C328/D328)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10298,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="21">
-        <f>IF(D329=0,0,C329/D329)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10316,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="E330" s="21">
-        <f>IF(D330=0,0,C330/D330)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10334,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="E331" s="21">
-        <f>IF(D331=0,0,C331/D331)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10352,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="E332" s="21">
-        <f>IF(D332=0,0,C332/D332)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10370,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="E333" s="21">
-        <f>IF(D333=0,0,C333/D333)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10388,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="E334" s="21">
-        <f>IF(D334=0,0,C334/D334)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10406,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="E335" s="21">
-        <f>IF(D335=0,0,C335/D335)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10424,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E336" s="21">
-        <f>IF(D336=0,0,C336/D336)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10442,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="E337" s="21">
-        <f>IF(D337=0,0,C337/D337)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10460,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="E338" s="21">
-        <f>IF(D338=0,0,C338/D338)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10478,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="E339" s="21">
-        <f>IF(D339=0,0,C339/D339)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10496,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="E340" s="21">
-        <f>IF(D340=0,0,C340/D340)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10514,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="E341" s="21">
-        <f>IF(D341=0,0,C341/D341)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10532,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="E342" s="21">
-        <f>IF(D342=0,0,C342/D342)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10550,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="E343" s="21">
-        <f>IF(D343=0,0,C343/D343)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10568,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="E344" s="21">
-        <f>IF(D344=0,0,C344/D344)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10586,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="21">
-        <f>IF(D345=0,0,C345/D345)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10604,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E346" s="21">
-        <f>IF(D346=0,0,C346/D346)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10622,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="E347" s="21">
-        <f>IF(D347=0,0,C347/D347)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10640,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="E348" s="21">
-        <f>IF(D348=0,0,C348/D348)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10658,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="E349" s="21">
-        <f>IF(D349=0,0,C349/D349)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10676,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="E350" s="21">
-        <f>IF(D350=0,0,C350/D350)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10694,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="E351" s="21">
-        <f>IF(D351=0,0,C351/D351)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10712,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="21">
-        <f>IF(D352=0,0,C352/D352)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10730,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="E353" s="21">
-        <f>IF(D353=0,0,C353/D353)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10748,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="E354" s="21">
-        <f>IF(D354=0,0,C354/D354)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10766,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="E355" s="21">
-        <f>IF(D355=0,0,C355/D355)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10784,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="E356" s="21">
-        <f>IF(D356=0,0,C356/D356)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10802,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="E357" s="21">
-        <f>IF(D357=0,0,C357/D357)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10820,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="E358" s="21">
-        <f>IF(D358=0,0,C358/D358)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10838,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="21">
-        <f>IF(D359=0,0,C359/D359)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10856,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="E360" s="21">
-        <f>IF(D360=0,0,C360/D360)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10874,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="E361" s="21">
-        <f>IF(D361=0,0,C361/D361)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10892,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="E362" s="21">
-        <f>IF(D362=0,0,C362/D362)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10910,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E363" s="21">
-        <f>IF(D363=0,0,C363/D363)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10928,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="21">
-        <f>IF(D364=0,0,C364/D364)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10946,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="E365" s="21">
-        <f>IF(D365=0,0,C365/D365)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10964,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="E366" s="21">
-        <f>IF(D366=0,0,C366/D366)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10982,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="E367" s="21">
-        <f>IF(D367=0,0,C367/D367)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11000,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="E368" s="21">
-        <f>IF(D368=0,0,C368/D368)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11018,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="E369" s="21">
-        <f>IF(D369=0,0,C369/D369)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11036,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="E370" s="21">
-        <f>IF(D370=0,0,C370/D370)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11054,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="21">
-        <f>IF(D371=0,0,C371/D371)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11072,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="E372" s="21">
-        <f>IF(D372=0,0,C372/D372)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11090,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E373" s="21">
-        <f>IF(D373=0,0,C373/D373)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11108,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="E374" s="21">
-        <f>IF(D374=0,0,C374/D374)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11126,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="E375" s="21">
-        <f>IF(D375=0,0,C375/D375)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11144,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="E376" s="21">
-        <f>IF(D376=0,0,C376/D376)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11162,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E377" s="21">
-        <f>IF(D377=0,0,C377/D377)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11180,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="E378" s="21">
-        <f>IF(D378=0,0,C378/D378)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11198,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="E379" s="21">
-        <f>IF(D379=0,0,C379/D379)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11216,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="21">
-        <f>IF(D380=0,0,C380/D380)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11234,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="21">
-        <f>IF(D381=0,0,C381/D381)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11252,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="E382" s="21">
-        <f>IF(D382=0,0,C382/D382)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11270,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="E383" s="21">
-        <f>IF(D383=0,0,C383/D383)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11288,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="E384" s="21">
-        <f>IF(D384=0,0,C384/D384)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11306,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="E385" s="21">
-        <f>IF(D385=0,0,C385/D385)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11324,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="21">
-        <f>IF(D386=0,0,C386/D386)</f>
+        <f t="shared" ref="E386:E449" si="5">IF(D386=0,0,C386/D386)</f>
         <v>0</v>
       </c>
     </row>
@@ -11342,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="E387" s="21">
-        <f>IF(D387=0,0,C387/D387)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11360,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="E388" s="21">
-        <f>IF(D388=0,0,C388/D388)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11378,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="E389" s="21">
-        <f>IF(D389=0,0,C389/D389)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11396,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="E390" s="21">
-        <f>IF(D390=0,0,C390/D390)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11414,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="E391" s="21">
-        <f>IF(D391=0,0,C391/D391)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11432,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="E392" s="21">
-        <f>IF(D392=0,0,C392/D392)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11450,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="E393" s="21">
-        <f>IF(D393=0,0,C393/D393)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11468,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="E394" s="21">
-        <f>IF(D394=0,0,C394/D394)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11486,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="E395" s="21">
-        <f>IF(D395=0,0,C395/D395)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11504,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="E396" s="21">
-        <f>IF(D396=0,0,C396/D396)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11522,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E397" s="21">
-        <f>IF(D397=0,0,C397/D397)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11540,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E398" s="21">
-        <f>IF(D398=0,0,C398/D398)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11558,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="E399" s="21">
-        <f>IF(D399=0,0,C399/D399)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11576,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="E400" s="21">
-        <f>IF(D400=0,0,C400/D400)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11594,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="E401" s="21">
-        <f>IF(D401=0,0,C401/D401)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11612,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="E402" s="21">
-        <f>IF(D402=0,0,C402/D402)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11630,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="E403" s="21">
-        <f>IF(D403=0,0,C403/D403)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11648,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="21">
-        <f>IF(D404=0,0,C404/D404)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11666,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="E405" s="21">
-        <f>IF(D405=0,0,C405/D405)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11684,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E406" s="21">
-        <f>IF(D406=0,0,C406/D406)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11702,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="E407" s="21">
-        <f>IF(D407=0,0,C407/D407)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11720,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="21">
-        <f>IF(D408=0,0,C408/D408)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11738,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="E409" s="21">
-        <f>IF(D409=0,0,C409/D409)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11756,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="E410" s="21">
-        <f>IF(D410=0,0,C410/D410)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11774,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="E411" s="21">
-        <f>IF(D411=0,0,C411/D411)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11792,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="E412" s="21">
-        <f>IF(D412=0,0,C412/D412)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11810,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="E413" s="21">
-        <f>IF(D413=0,0,C413/D413)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11828,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E414" s="21">
-        <f>IF(D414=0,0,C414/D414)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11846,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="E415" s="21">
-        <f>IF(D415=0,0,C415/D415)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11864,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="E416" s="21">
-        <f>IF(D416=0,0,C416/D416)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11882,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="E417" s="21">
-        <f>IF(D417=0,0,C417/D417)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11900,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="21">
-        <f>IF(D418=0,0,C418/D418)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11918,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="E419" s="21">
-        <f>IF(D419=0,0,C419/D419)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11936,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="E420" s="21">
-        <f>IF(D420=0,0,C420/D420)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11954,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="E421" s="21">
-        <f>IF(D421=0,0,C421/D421)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11972,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="E422" s="21">
-        <f>IF(D422=0,0,C422/D422)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11990,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="E423" s="21">
-        <f>IF(D423=0,0,C423/D423)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12008,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="E424" s="21">
-        <f>IF(D424=0,0,C424/D424)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12026,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="E425" s="21">
-        <f>IF(D425=0,0,C425/D425)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12044,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="E426" s="21">
-        <f>IF(D426=0,0,C426/D426)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12062,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="E427" s="21">
-        <f>IF(D427=0,0,C427/D427)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12080,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="E428" s="21">
-        <f>IF(D428=0,0,C428/D428)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12098,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="E429" s="21">
-        <f>IF(D429=0,0,C429/D429)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12116,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="E430" s="21">
-        <f>IF(D430=0,0,C430/D430)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12134,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E431" s="21">
-        <f>IF(D431=0,0,C431/D431)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12152,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="E432" s="21">
-        <f>IF(D432=0,0,C432/D432)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12170,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="E433" s="21">
-        <f>IF(D433=0,0,C433/D433)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12188,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="E434" s="21">
-        <f>IF(D434=0,0,C434/D434)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12206,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="E435" s="21">
-        <f>IF(D435=0,0,C435/D435)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12224,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="E436" s="21">
-        <f>IF(D436=0,0,C436/D436)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12242,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="E437" s="21">
-        <f>IF(D437=0,0,C437/D437)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12260,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="E438" s="21">
-        <f>IF(D438=0,0,C438/D438)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12278,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="E439" s="21">
-        <f>IF(D439=0,0,C439/D439)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12296,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="E440" s="21">
-        <f>IF(D440=0,0,C440/D440)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12314,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="E441" s="21">
-        <f>IF(D441=0,0,C441/D441)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12332,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="E442" s="21">
-        <f>IF(D442=0,0,C442/D442)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12350,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="E443" s="21">
-        <f>IF(D443=0,0,C443/D443)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12368,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="E444" s="21">
-        <f>IF(D444=0,0,C444/D444)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12386,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="E445" s="21">
-        <f>IF(D445=0,0,C445/D445)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12404,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="E446" s="21">
-        <f>IF(D446=0,0,C446/D446)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12422,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E447" s="21">
-        <f>IF(D447=0,0,C447/D447)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12440,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E448" s="21">
-        <f>IF(D448=0,0,C448/D448)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12458,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="E449" s="21">
-        <f>IF(D449=0,0,C449/D449)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12476,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="E450" s="21">
-        <f>IF(D450=0,0,C450/D450)</f>
+        <f t="shared" ref="E450:E501" si="6">IF(D450=0,0,C450/D450)</f>
         <v>0</v>
       </c>
     </row>
@@ -12494,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="E451" s="21">
-        <f>IF(D451=0,0,C451/D451)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12512,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="E452" s="21">
-        <f>IF(D452=0,0,C452/D452)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12530,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="21">
-        <f>IF(D453=0,0,C453/D453)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12548,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="E454" s="21">
-        <f>IF(D454=0,0,C454/D454)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12566,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="E455" s="21">
-        <f>IF(D455=0,0,C455/D455)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12584,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="E456" s="21">
-        <f>IF(D456=0,0,C456/D456)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12602,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="E457" s="21">
-        <f>IF(D457=0,0,C457/D457)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12620,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="E458" s="21">
-        <f>IF(D458=0,0,C458/D458)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12638,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="E459" s="21">
-        <f>IF(D459=0,0,C459/D459)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12656,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="E460" s="21">
-        <f>IF(D460=0,0,C460/D460)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12674,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="E461" s="21">
-        <f>IF(D461=0,0,C461/D461)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12692,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="E462" s="21">
-        <f>IF(D462=0,0,C462/D462)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12710,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="E463" s="21">
-        <f>IF(D463=0,0,C463/D463)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12728,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="E464" s="21">
-        <f>IF(D464=0,0,C464/D464)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12746,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E465" s="21">
-        <f>IF(D465=0,0,C465/D465)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12764,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="E466" s="21">
-        <f>IF(D466=0,0,C466/D466)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12782,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="E467" s="21">
-        <f>IF(D467=0,0,C467/D467)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12800,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="E468" s="21">
-        <f>IF(D468=0,0,C468/D468)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="E469" s="21">
-        <f>IF(D469=0,0,C469/D469)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12836,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="E470" s="21">
-        <f>IF(D470=0,0,C470/D470)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12854,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="21">
-        <f>IF(D471=0,0,C471/D471)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12872,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="E472" s="21">
-        <f>IF(D472=0,0,C472/D472)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12890,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="E473" s="21">
-        <f>IF(D473=0,0,C473/D473)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12908,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="E474" s="21">
-        <f>IF(D474=0,0,C474/D474)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12926,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="E475" s="21">
-        <f>IF(D475=0,0,C475/D475)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12944,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E476" s="21">
-        <f>IF(D476=0,0,C476/D476)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12962,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="E477" s="21">
-        <f>IF(D477=0,0,C477/D477)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12980,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="21">
-        <f>IF(D478=0,0,C478/D478)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12998,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="E479" s="21">
-        <f>IF(D479=0,0,C479/D479)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13016,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="E480" s="21">
-        <f>IF(D480=0,0,C480/D480)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13034,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="E481" s="21">
-        <f>IF(D481=0,0,C481/D481)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13052,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E482" s="21">
-        <f>IF(D482=0,0,C482/D482)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13070,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="E483" s="21">
-        <f>IF(D483=0,0,C483/D483)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13088,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="E484" s="21">
-        <f>IF(D484=0,0,C484/D484)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13106,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="E485" s="21">
-        <f>IF(D485=0,0,C485/D485)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13124,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="E486" s="21">
-        <f>IF(D486=0,0,C486/D486)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13142,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="E487" s="21">
-        <f>IF(D487=0,0,C487/D487)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13160,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="E488" s="21">
-        <f>IF(D488=0,0,C488/D488)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="E489" s="21">
-        <f>IF(D489=0,0,C489/D489)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13196,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="E490" s="21">
-        <f>IF(D490=0,0,C490/D490)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13214,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="E491" s="21">
-        <f>IF(D491=0,0,C491/D491)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13232,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="E492" s="21">
-        <f>IF(D492=0,0,C492/D492)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13250,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="E493" s="21">
-        <f>IF(D493=0,0,C493/D493)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13268,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="E494" s="21">
-        <f>IF(D494=0,0,C494/D494)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13286,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="E495" s="21">
-        <f>IF(D495=0,0,C495/D495)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13304,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="E496" s="21">
-        <f>IF(D496=0,0,C496/D496)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13322,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="E497" s="21">
-        <f>IF(D497=0,0,C497/D497)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13340,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="E498" s="21">
-        <f>IF(D498=0,0,C498/D498)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13358,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E499" s="21">
-        <f>IF(D499=0,0,C499/D499)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13376,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="E500" s="21">
-        <f>IF(D500=0,0,C500/D500)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13394,17 +13362,11 @@
         <v>0</v>
       </c>
       <c r="E501" s="21">
-        <f>IF(D501=0,0,C501/D501)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E501" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:E501">
-      <sortCondition ref="E1" descending="1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -13792,10 +13754,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C22" s="12">
         <v>783618</v>
@@ -13936,7 +13898,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>158</v>
@@ -13970,7 +13932,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>162</v>
@@ -13988,7 +13950,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>166</v>
@@ -14128,7 +14090,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>186</v>
@@ -14144,10 +14106,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="10" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C42" s="12">
         <v>449265</v>
@@ -14214,7 +14176,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>198</v>
@@ -14408,7 +14370,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="10" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>218</v>
@@ -14478,7 +14440,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="10" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>228</v>
@@ -14496,10 +14458,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="10" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C62" s="12">
         <v>369698</v>
@@ -14607,7 +14569,7 @@
         <v>229</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C68" s="12">
         <v>360656</v>
@@ -14622,7 +14584,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>242</v>
@@ -14730,7 +14692,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>254</v>
@@ -14891,7 +14853,7 @@
         <v>257</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C84" s="12">
         <v>320105</v>
@@ -14996,7 +14958,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>280</v>
@@ -15213,7 +15175,7 @@
         <v>291</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C102" s="12">
         <v>269939</v>
@@ -15300,10 +15262,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C107" s="12">
         <v>258578</v>
@@ -15357,7 +15319,7 @@
         <v>305</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C110" s="12">
         <v>245619</v>
@@ -15406,7 +15368,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="10" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>320</v>
@@ -15460,7 +15422,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>324</v>
@@ -15604,7 +15566,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="10" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>342</v>
@@ -15746,7 +15708,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="10" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>356</v>
@@ -15780,7 +15742,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="10" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>362</v>
@@ -15814,7 +15776,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="10" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>366</v>
@@ -15832,7 +15794,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="10" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>364</v>
@@ -15868,7 +15830,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="10" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>372</v>
@@ -16096,7 +16058,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="10" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>394</v>
@@ -16504,7 +16466,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="10" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>446</v>
@@ -16732,7 +16694,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>474</v>
@@ -16750,7 +16712,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="10" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>472</v>
@@ -16768,7 +16730,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>476</v>
@@ -16840,7 +16802,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="10" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>484</v>
@@ -16912,7 +16874,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="10" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>492</v>
@@ -17000,7 +16962,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>498</v>
@@ -17546,7 +17508,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>566</v>
@@ -17654,7 +17616,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="10" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>580</v>
@@ -17672,7 +17634,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>584</v>
@@ -19146,7 +19108,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>742</v>
@@ -19200,7 +19162,7 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>750</v>
@@ -19236,7 +19198,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>754</v>
@@ -21576,10 +21538,10 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="10" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C460" s="12">
         <v>841459</v>
@@ -21594,10 +21556,10 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="10" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C461" s="12">
         <v>743565</v>
@@ -21612,10 +21574,10 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="10" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C462" s="12">
         <v>713992</v>
@@ -21633,7 +21595,7 @@
         <v>155</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C463" s="12">
         <v>618951</v>
@@ -21666,10 +21628,10 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C465" s="12">
         <v>579114</v>
@@ -21687,7 +21649,7 @@
         <v>159</v>
       </c>
       <c r="B466" s="11" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C466" s="12">
         <v>562827</v>
@@ -21702,10 +21664,10 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="10" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C467" s="12">
         <v>561877</v>
@@ -21738,7 +21700,7 @@
         <v>163</v>
       </c>
       <c r="B469" s="11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C469" s="12">
         <v>509004</v>
@@ -21753,10 +21715,10 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="10" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B470" s="11" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C470" s="12">
         <v>488308</v>
@@ -21774,7 +21736,7 @@
         <v>175</v>
       </c>
       <c r="B471" s="11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C471" s="12">
         <v>477709</v>
@@ -21792,7 +21754,7 @@
         <v>49</v>
       </c>
       <c r="B472" s="11" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C472" s="12">
         <v>475000</v>
@@ -21807,10 +21769,10 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="10" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B473" s="11" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C473" s="12">
         <v>458148</v>
@@ -21828,7 +21790,7 @@
         <v>199</v>
       </c>
       <c r="B474" s="11" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C474" s="12">
         <v>418749</v>
@@ -21846,7 +21808,7 @@
         <v>209</v>
       </c>
       <c r="B475" s="11" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C475" s="12">
         <v>389828</v>
@@ -21864,7 +21826,7 @@
         <v>211</v>
       </c>
       <c r="B476" s="11" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C476" s="12">
         <v>389286</v>
@@ -21882,7 +21844,7 @@
         <v>321</v>
       </c>
       <c r="B477" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C477" s="12">
         <v>202749</v>
@@ -21900,7 +21862,7 @@
         <v>341</v>
       </c>
       <c r="B478" s="11" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C478" s="12">
         <v>186935</v>
@@ -21918,7 +21880,7 @@
         <v>345</v>
       </c>
       <c r="B479" s="11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C479" s="12">
         <v>186316</v>
@@ -21936,7 +21898,7 @@
         <v>347</v>
       </c>
       <c r="B480" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C480" s="12">
         <v>186253</v>
@@ -21951,10 +21913,10 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B481" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C481" s="12">
         <v>184980</v>
@@ -21969,10 +21931,10 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B482" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C482" s="12">
         <v>184425</v>
@@ -21990,7 +21952,7 @@
         <v>353</v>
       </c>
       <c r="B483" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C483" s="12">
         <v>178800</v>
@@ -22005,10 +21967,10 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="10" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B484" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C484" s="12">
         <v>178161</v>
@@ -22026,7 +21988,7 @@
         <v>363</v>
       </c>
       <c r="B485" s="11" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C485" s="12">
         <v>172498</v>
@@ -22044,7 +22006,7 @@
         <v>373</v>
       </c>
       <c r="B486" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C486" s="12">
         <v>170737</v>
@@ -22059,10 +22021,10 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B487" s="11" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C487" s="12">
         <v>168452</v>
@@ -22098,7 +22060,7 @@
         <v>425</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C489" s="12">
         <v>153086</v>
@@ -22116,7 +22078,7 @@
         <v>453</v>
       </c>
       <c r="B490" s="11" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C490" s="12">
         <v>112288</v>
@@ -22134,7 +22096,7 @@
         <v>455</v>
       </c>
       <c r="B491" s="11" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C491" s="12">
         <v>111998</v>
@@ -22152,7 +22114,7 @@
         <v>457</v>
       </c>
       <c r="B492" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C492" s="12">
         <v>110897</v>
@@ -22170,7 +22132,7 @@
         <v>463</v>
       </c>
       <c r="B493" s="11" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C493" s="12">
         <v>105574</v>
@@ -22188,7 +22150,7 @@
         <v>469</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C494" s="12">
         <v>101278</v>
@@ -22206,7 +22168,7 @@
         <v>471</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C495" s="12">
         <v>100502</v>
@@ -22221,10 +22183,10 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="10" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C496" s="12">
         <v>94876</v>
@@ -22242,7 +22204,7 @@
         <v>539</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C497" s="12">
         <v>74495</v>
@@ -22260,7 +22222,7 @@
         <v>551</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C498" s="12">
         <v>73346</v>
@@ -22278,7 +22240,7 @@
         <v>553</v>
       </c>
       <c r="B499" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C499" s="12">
         <v>73184</v>
@@ -22296,7 +22258,7 @@
         <v>717</v>
       </c>
       <c r="B500" s="11" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C500" s="12">
         <v>34979</v>
@@ -22314,7 +22276,7 @@
         <v>721</v>
       </c>
       <c r="B501" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C501" s="12">
         <v>34843</v>
@@ -22332,7 +22294,7 @@
         <v>733</v>
       </c>
       <c r="B502" s="11" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C502" s="12">
         <v>34126</v>
@@ -22385,7 +22347,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>505157</v>
@@ -22401,7 +22363,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>460528</v>
@@ -22417,7 +22379,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>388843</v>
@@ -22433,7 +22395,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>488991</v>
@@ -22449,7 +22411,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>418670</v>
@@ -22465,7 +22427,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>397687</v>
@@ -22481,7 +22443,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>165221</v>
@@ -22497,7 +22459,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>203032</v>
@@ -22513,7 +22475,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>189137</v>
@@ -22529,7 +22491,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>185790</v>
@@ -22545,7 +22507,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>185785</v>
@@ -22561,7 +22523,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>184761</v>
@@ -22577,7 +22539,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>182710</v>
@@ -22593,7 +22555,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>178523</v>
@@ -22609,7 +22571,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>174542</v>
@@ -22625,7 +22587,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>110888</v>
@@ -22641,7 +22603,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>105541</v>
@@ -22657,7 +22619,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>95123</v>
@@ -22673,7 +22635,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>170013</v>
@@ -22689,7 +22651,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>169792</v>
@@ -22705,7 +22667,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>112457</v>
@@ -22721,7 +22683,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>112239</v>
@@ -22737,7 +22699,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>160077</v>
@@ -22769,7 +22731,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>101274</v>
@@ -22785,7 +22747,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>93542</v>
@@ -22817,7 +22779,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>72886</v>
@@ -22833,7 +22795,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B30">
         <v>72678</v>
@@ -22849,7 +22811,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>71775</v>
@@ -22865,7 +22827,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>35001</v>
@@ -22881,7 +22843,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>34933</v>
@@ -22897,7 +22859,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>34376</v>
@@ -23043,7 +23005,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>840834</v>
@@ -23095,7 +23057,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>782575</v>
@@ -23134,7 +23096,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>741547</v>
@@ -23147,7 +23109,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>719300</v>
@@ -23212,7 +23174,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B58">
         <v>618394</v>
@@ -23238,7 +23200,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>586243</v>
@@ -23264,7 +23226,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>560515</v>
@@ -23342,7 +23304,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B68">
         <v>477890</v>
@@ -23420,7 +23382,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>448657</v>
@@ -23628,7 +23590,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B90">
         <v>369522</v>
@@ -23693,7 +23655,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B95">
         <v>361034</v>
@@ -23888,7 +23850,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B110">
         <v>319973</v>
@@ -24148,7 +24110,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B130">
         <v>271267</v>
@@ -24200,7 +24162,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B134">
         <v>258540</v>
@@ -24226,7 +24188,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B136">
         <v>245238</v>
